--- a/examples/Canada OGD/vehicle manufacturers/counters_summary.xlsx
+++ b/examples/Canada OGD/vehicle manufacturers/counters_summary.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/Canada OGD/vehicle manufacturers/counters_summary.xlsx
+++ b/examples/Canada OGD/vehicle manufacturers/counters_summary.xlsx
@@ -360,77 +360,102 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>COMPLETENESSMANDATORY</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSMANDATORY SCORE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL SCORE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PRECISION</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PRECISION SCORE</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>UNIQUENESS</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UNIQUENESSCOMPOSITE</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>UNIQUENESS SCORE</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY SCORE</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
         <is>
           <t>FORMATCONSISTENCY</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>FORMATCONSISTENCYPREFIX</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>VALUECONSISTENCY</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCESIZE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCETYPE</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMIN</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMAX</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCEENUM</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>RULECOMPLIANCE</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>MANDATORYCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>OPTIONALCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AVAILABILITY</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>CONFORMANCE</t>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>FORMATCONSISTENCY SCORE</t>
         </is>
       </c>
     </row>
@@ -441,7 +466,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -483,6 +508,21 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -493,7 +533,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -526,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -535,6 +575,21 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -589,6 +644,21 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -641,6 +711,21 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -693,6 +778,21 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -745,6 +845,21 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -797,6 +912,21 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -849,6 +979,21 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -901,6 +1046,21 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -953,6 +1113,21 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1005,6 +1180,21 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1057,6 +1247,21 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1109,6 +1314,21 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1161,6 +1381,21 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1169,7 +1404,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1202,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1211,6 +1446,21 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1221,7 +1471,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1254,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1263,6 +1513,21 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1273,7 +1538,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1306,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1315,6 +1580,21 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1325,7 +1605,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1358,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1367,6 +1647,21 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/examples/Canada OGD/vehicle manufacturers/counters_summary.xlsx
+++ b/examples/Canada OGD/vehicle manufacturers/counters_summary.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -624,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.014984</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.014984</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
